--- a/data-raw/gopakumaran.tumeric.uniformity.xlsx
+++ b/data-raw/gopakumaran.tumeric.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD234F-AF92-40EA-8E61-C51EA4576402}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2757E1EA-EE48-49B3-B170-9BD8449E1A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19335" yWindow="750" windowWidth="8535" windowHeight="14415" xr2:uid="{257990AD-C8C4-48F9-9C94-43E09950DF53}"/>
+    <workbookView xWindow="40965" yWindow="2955" windowWidth="11385" windowHeight="12195" xr2:uid="{257990AD-C8C4-48F9-9C94-43E09950DF53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,9 +89,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +129,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -239,7 +235,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,9 +391,9 @@
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>155</v>
       </c>
@@ -615,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>25</v>
       </c>
@@ -833,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>323</v>
       </c>
@@ -1051,7 +1047,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>25</v>
       </c>
@@ -1269,7 +1265,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>502</v>
       </c>
@@ -1487,7 +1483,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1705,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>515</v>
       </c>
@@ -1923,7 +1919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2141,7 +2137,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30</v>
       </c>
@@ -2359,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -2577,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>76</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
       <c r="H15" s="1"/>
     </row>
   </sheetData>
